--- a/FunctionList.xlsx
+++ b/FunctionList.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Level 6\5COSC009C.2 Software Development Group Project\Electrimate\GIT Projects\crypto-electrimate-admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\electromate\crypto-electrimate-admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5295" windowHeight="1035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5295" windowHeight="1035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>File</t>
   </si>
@@ -33,12 +33,135 @@
   </si>
   <si>
     <t>Done By</t>
+  </si>
+  <si>
+    <t>error-page.component.ts</t>
+  </si>
+  <si>
+    <t>goHome</t>
+  </si>
+  <si>
+    <t>full-layout.component.ts</t>
+  </si>
+  <si>
+    <t>ngOnInit()</t>
+  </si>
+  <si>
+    <t>onClick()</t>
+  </si>
+  <si>
+    <t>login.page.component.ts</t>
+  </si>
+  <si>
+    <t>onSubmit()</t>
+  </si>
+  <si>
+    <t>module-form.component.ts</t>
+  </si>
+  <si>
+    <t>submit()</t>
+  </si>
+  <si>
+    <t>cancel()</t>
+  </si>
+  <si>
+    <t>module-list.component.ts</t>
+  </si>
+  <si>
+    <t>ngOnDestroy()</t>
+  </si>
+  <si>
+    <t>onRowSelect</t>
+  </si>
+  <si>
+    <t>batchChanged</t>
+  </si>
+  <si>
+    <t>generatePDF</t>
+  </si>
+  <si>
+    <t>setAction</t>
+  </si>
+  <si>
+    <t>sensor-form.component.ts</t>
+  </si>
+  <si>
+    <t>inventory.service.ts</t>
+  </si>
+  <si>
+    <t>getModulesList</t>
+  </si>
+  <si>
+    <t>saveModules</t>
+  </si>
+  <si>
+    <t>getModulesBatches</t>
+  </si>
+  <si>
+    <t>getSensorsList</t>
+  </si>
+  <si>
+    <t>saveSensors</t>
+  </si>
+  <si>
+    <t>getSensorBatches</t>
+  </si>
+  <si>
+    <t>user.service.ts</t>
+  </si>
+  <si>
+    <t>getUser</t>
+  </si>
+  <si>
+    <t>getUserList</t>
+  </si>
+  <si>
+    <t>saveUser</t>
+  </si>
+  <si>
+    <t>updateUser</t>
+  </si>
+  <si>
+    <t>disableUser</t>
+  </si>
+  <si>
+    <t>enableUser</t>
+  </si>
+  <si>
+    <t>deleteUser</t>
+  </si>
+  <si>
+    <t>user-module.service.ts</t>
+  </si>
+  <si>
+    <t>getModule</t>
+  </si>
+  <si>
+    <t>saveModule</t>
+  </si>
+  <si>
+    <t>updateModule</t>
+  </si>
+  <si>
+    <t>deleteModule</t>
+  </si>
+  <si>
+    <t>user-list.component.ts</t>
+  </si>
+  <si>
+    <t>user-form.component.ts</t>
+  </si>
+  <si>
+    <t>canViewButton</t>
+  </si>
+  <si>
+    <t>submitAction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,16 +481,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
@@ -383,6 +506,254 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
